--- a/covid/app/dept.xlsx
+++ b/covid/app/dept.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JSW Intern Misc\COVID HELP JSW\covid_jsw\covid\app\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF1F731C-5EA7-472D-8383-145891025E3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>Dept</t>
   </si>
@@ -65,12 +71,15 @@
   </si>
   <si>
     <t>Default</t>
+  </si>
+  <si>
+    <t>shreyasbhakta@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -132,6 +141,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -394,14 +406,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -464,7 +476,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -541,22 +553,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14" display="avulapatin.cs18@rvce.edu.in"/>
-    <hyperlink ref="B16" r:id="rId15" display="niranjan.prep@gmail.com"/>
-    <hyperlink ref="B17" r:id="rId16" display="niranjan.prep@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" display="avulapatin.cs18@rvce.edu.in" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" display="niranjan.prep@gmail.com" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" display="niranjan.prep@gmail.com" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
